--- a/branches/ARVTReatMent-Branch2-FIG44/CodeSystem-cs-artregimen-lines.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/CodeSystem-cs-artregimen-lines.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:39:24+00:00</t>
+    <t>2023-02-09T10:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
